--- a/Statistical analyses/Tukey posthoc/NAG/Vmax, timePoint x Vegetation.xlsx
+++ b/Statistical analyses/Tukey posthoc/NAG/Vmax, timePoint x Vegetation.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial enzyme activity in leaf litter\Statistical analyses\Tukey posthoc\NAG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89619742-0819-447D-8828-DD4ED19F475B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13356" yWindow="2544" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,17 +129,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,122 +507,122 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1.1315</v>
       </c>
-      <c r="D2">
-        <v>0.001</v>
-      </c>
-      <c r="E2">
-        <v>0.7465000000000001</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="F2" s="2">
         <v>1.5165</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.5363</v>
       </c>
-      <c r="D3">
-        <v>0.0013</v>
-      </c>
-      <c r="E3">
-        <v>0.1514</v>
-      </c>
-      <c r="F3">
-        <v>0.9213</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="D3" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1.2311</v>
-      </c>
-      <c r="D4">
-        <v>0.001</v>
-      </c>
-      <c r="E4">
-        <v>0.8461</v>
-      </c>
-      <c r="F4">
-        <v>1.6161</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>1.2311000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.6161000000000001</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>0.7282</v>
-      </c>
-      <c r="D5">
-        <v>0.001</v>
-      </c>
-      <c r="E5">
-        <v>0.3433</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="2">
+        <v>0.72819999999999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="F5" s="2">
         <v>1.1132</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1.1836</v>
       </c>
-      <c r="D6">
-        <v>0.001</v>
-      </c>
-      <c r="E6">
-        <v>0.7986</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="F6" s="2">
         <v>1.5686</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -568,68 +630,68 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.3344</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="D7">
         <v>0.1333</v>
       </c>
       <c r="E7">
-        <v>-0.0505</v>
+        <v>-5.0500000000000003E-2</v>
       </c>
       <c r="F7">
-        <v>0.7194</v>
+        <v>0.71940000000000004</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1.0989</v>
       </c>
-      <c r="D8">
-        <v>0.001</v>
-      </c>
-      <c r="E8">
-        <v>0.7140000000000001</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.71400000000000008</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.4839</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>-0.5952</v>
-      </c>
-      <c r="D9">
-        <v>0.001</v>
-      </c>
-      <c r="E9">
-        <v>-0.9801</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="2">
+        <v>-0.59519999999999995</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.98009999999999997</v>
+      </c>
+      <c r="F9" s="2">
         <v>-0.2102</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -637,45 +699,45 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.09959999999999999</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="D10">
         <v>0.9</v>
       </c>
       <c r="E10">
-        <v>-0.2854</v>
+        <v>-0.28539999999999999</v>
       </c>
       <c r="F10">
-        <v>0.4846</v>
+        <v>0.48459999999999998</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>-0.4033</v>
-      </c>
-      <c r="D11">
-        <v>0.0338</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="2">
+        <v>-0.40329999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="E11" s="2">
         <v>-0.7883</v>
       </c>
-      <c r="F11">
-        <v>-0.0183</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="2">
+        <v>-1.83E-2</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -683,45 +745,45 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.0521</v>
+        <v>5.21E-2</v>
       </c>
       <c r="D12">
         <v>0.9</v>
       </c>
       <c r="E12">
-        <v>-0.3329</v>
+        <v>-0.33289999999999997</v>
       </c>
       <c r="F12">
-        <v>0.4371</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>-0.7971</v>
-      </c>
-      <c r="D13">
-        <v>0.001</v>
-      </c>
-      <c r="E13">
-        <v>-1.1821</v>
-      </c>
-      <c r="F13">
-        <v>-0.4121</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" s="2">
+        <v>-0.79710000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-1.1820999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.41210000000000002</v>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -729,45 +791,45 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.0326</v>
+        <v>-3.2599999999999997E-2</v>
       </c>
       <c r="D14">
         <v>0.9</v>
       </c>
       <c r="E14">
-        <v>-0.4176</v>
+        <v>-0.41760000000000003</v>
       </c>
       <c r="F14">
-        <v>0.3524</v>
+        <v>0.35239999999999999</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>0.6948</v>
-      </c>
-      <c r="D15">
-        <v>0.001</v>
-      </c>
-      <c r="E15">
-        <v>0.3098</v>
-      </c>
-      <c r="F15">
-        <v>1.0797</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="C15" s="2">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.0797000000000001</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -775,45 +837,45 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>0.1919</v>
+        <v>0.19189999999999999</v>
       </c>
       <c r="D16">
-        <v>0.7401</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="E16">
-        <v>-0.1931</v>
+        <v>-0.19309999999999999</v>
       </c>
       <c r="F16">
-        <v>0.5769</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>0.6473</v>
-      </c>
-      <c r="D17">
-        <v>0.001</v>
-      </c>
-      <c r="E17">
-        <v>0.2623</v>
-      </c>
-      <c r="F17">
+      <c r="C17" s="2">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.26229999999999998</v>
+      </c>
+      <c r="F17" s="2">
         <v>1.0322</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -824,65 +886,65 @@
         <v>-0.2019</v>
       </c>
       <c r="D18">
-        <v>0.6928</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="E18">
-        <v>-0.5869</v>
+        <v>-0.58689999999999998</v>
       </c>
       <c r="F18">
-        <v>0.1831</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>0.5626</v>
-      </c>
-      <c r="D19">
-        <v>0.001</v>
-      </c>
-      <c r="E19">
-        <v>0.1776</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="2">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F19" s="2">
         <v>0.9476</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>-0.5029</v>
-      </c>
-      <c r="D20">
-        <v>0.0031</v>
-      </c>
-      <c r="E20">
-        <v>-0.8879</v>
-      </c>
-      <c r="F20">
+      <c r="C20" s="2">
+        <v>-0.50290000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.88790000000000002</v>
+      </c>
+      <c r="F20" s="2">
         <v>-0.1179</v>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -890,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>-0.0475</v>
+        <v>-4.7500000000000001E-2</v>
       </c>
       <c r="D21">
         <v>0.9</v>
@@ -899,36 +961,36 @@
         <v>-0.4325</v>
       </c>
       <c r="F21">
-        <v>0.3375</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
-        <v>-0.8967000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.001</v>
-      </c>
-      <c r="E22">
-        <v>-1.2817</v>
-      </c>
-      <c r="F22">
-        <v>-0.5117</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="2">
+        <v>-0.89670000000000005</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1.2817000000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.51170000000000004</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -936,68 +998,68 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>-0.1322</v>
+        <v>-0.13220000000000001</v>
       </c>
       <c r="D23">
         <v>0.9</v>
       </c>
       <c r="E23">
-        <v>-0.5172</v>
+        <v>-0.51719999999999999</v>
       </c>
       <c r="F23">
-        <v>0.2528</v>
+        <v>0.25280000000000002</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
-        <v>0.4554</v>
-      </c>
-      <c r="D24">
-        <v>0.0101</v>
-      </c>
-      <c r="E24">
-        <v>0.0704</v>
-      </c>
-      <c r="F24">
-        <v>0.8404</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="C24" s="2">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
-        <v>-0.3938</v>
-      </c>
-      <c r="D25">
-        <v>0.0415</v>
-      </c>
-      <c r="E25">
-        <v>-0.7788</v>
-      </c>
-      <c r="F25">
-        <v>-0.008800000000000001</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="2">
+        <v>-0.39379999999999998</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.77880000000000005</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1005,45 +1067,45 @@
         <v>14</v>
       </c>
       <c r="C26">
-        <v>0.3707</v>
+        <v>0.37069999999999997</v>
       </c>
       <c r="D26">
-        <v>0.0672</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="E26">
-        <v>-0.0143</v>
+        <v>-1.43E-2</v>
       </c>
       <c r="F26">
-        <v>0.7557</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
-        <v>-0.8492</v>
-      </c>
-      <c r="D27">
-        <v>0.001</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="2">
+        <v>-0.84919999999999995</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E27" s="2">
         <v>-1.2342</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>-0.4642</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1051,41 +1113,41 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>-0.0847</v>
+        <v>-8.4699999999999998E-2</v>
       </c>
       <c r="D28">
         <v>0.9</v>
       </c>
       <c r="E28">
-        <v>-0.4697</v>
+        <v>-0.46970000000000001</v>
       </c>
       <c r="F28">
-        <v>0.3003</v>
+        <v>0.30030000000000001</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
-        <v>0.7645</v>
-      </c>
-      <c r="D29">
-        <v>0.001</v>
-      </c>
-      <c r="E29">
+      <c r="C29" s="2">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="2">
         <v>0.3795</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>1.1495</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="2" t="b">
         <v>1</v>
       </c>
     </row>
